--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H2">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I2">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J2">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N2">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O2">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P2">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q2">
-        <v>219.942547413649</v>
+        <v>239.5869771723633</v>
       </c>
       <c r="R2">
-        <v>219.942547413649</v>
+        <v>1437.52186303418</v>
       </c>
       <c r="S2">
-        <v>0.2037335411665054</v>
+        <v>0.1959520507066165</v>
       </c>
       <c r="T2">
-        <v>0.2037335411665054</v>
+        <v>0.1634845426965799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H3">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I3">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J3">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N3">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O3">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P3">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q3">
-        <v>289.8306203464423</v>
+        <v>343.6955487583867</v>
       </c>
       <c r="R3">
-        <v>289.8306203464423</v>
+        <v>3093.25993882548</v>
       </c>
       <c r="S3">
-        <v>0.2684711044589881</v>
+        <v>0.2810997842737106</v>
       </c>
       <c r="T3">
-        <v>0.2684711044589881</v>
+        <v>0.3517860837769465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H4">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I4">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J4">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N4">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O4">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P4">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q4">
-        <v>126.5274855581186</v>
+        <v>149.1893951642444</v>
       </c>
       <c r="R4">
-        <v>126.5274855581186</v>
+        <v>1342.7045564782</v>
       </c>
       <c r="S4">
-        <v>0.1172028467923877</v>
+        <v>0.1220181842566594</v>
       </c>
       <c r="T4">
-        <v>0.1172028467923877</v>
+        <v>0.1527012882636299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3459667132323</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>12.3459667132323</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.7410013498064966</v>
+        <v>0.744640910590638</v>
       </c>
       <c r="J5">
-        <v>0.7410013498064966</v>
+        <v>0.789423007068499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N5">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O5">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P5">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q5">
-        <v>163.6546391694244</v>
+        <v>177.98685799888</v>
       </c>
       <c r="R5">
-        <v>163.6546391694244</v>
+        <v>1067.92114799328</v>
       </c>
       <c r="S5">
-        <v>0.1515938573886154</v>
+        <v>0.1455708913536515</v>
       </c>
       <c r="T5">
-        <v>0.1515938573886154</v>
+        <v>0.1214510923313427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H6">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I6">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J6">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N6">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O6">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P6">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q6">
-        <v>9.89488580219489</v>
+        <v>2.087127633462667</v>
       </c>
       <c r="R6">
-        <v>9.89488580219489</v>
+        <v>12.522765800776</v>
       </c>
       <c r="S6">
-        <v>0.009165666887216567</v>
+        <v>0.001707008221775057</v>
       </c>
       <c r="T6">
-        <v>0.009165666887216567</v>
+        <v>0.001424172176355662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H7">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I7">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J7">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N7">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O7">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P7">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q7">
-        <v>13.03904553271251</v>
+        <v>2.994054542437334</v>
       </c>
       <c r="R7">
-        <v>13.03904553271251</v>
+        <v>26.946490881936</v>
       </c>
       <c r="S7">
-        <v>0.01207811290288788</v>
+        <v>0.002448760506277349</v>
       </c>
       <c r="T7">
-        <v>0.01207811290288788</v>
+        <v>0.003064534079372204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H8">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I8">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J8">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N8">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O8">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P8">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q8">
-        <v>5.692282076199835</v>
+        <v>1.299642046248889</v>
       </c>
       <c r="R8">
-        <v>5.692282076199835</v>
+        <v>11.69677841624</v>
       </c>
       <c r="S8">
-        <v>0.005272780543555948</v>
+        <v>0.001062943934401746</v>
       </c>
       <c r="T8">
-        <v>0.005272780543555948</v>
+        <v>0.001330235399944491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.555426551986694</v>
+        <v>0.1169053333333333</v>
       </c>
       <c r="H9">
-        <v>0.555426551986694</v>
+        <v>0.350716</v>
       </c>
       <c r="I9">
-        <v>0.03333654093683805</v>
+        <v>0.006486832631067555</v>
       </c>
       <c r="J9">
-        <v>0.03333654093683805</v>
+        <v>0.00687694544999633</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N9">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O9">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P9">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q9">
-        <v>7.362577112173492</v>
+        <v>1.550507018816</v>
       </c>
       <c r="R9">
-        <v>7.362577112173492</v>
+        <v>9.303042112896001</v>
       </c>
       <c r="S9">
-        <v>0.006819980603177657</v>
+        <v>0.001268119968613404</v>
       </c>
       <c r="T9">
-        <v>0.006819980603177657</v>
+        <v>0.001058003794323972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H10">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I10">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J10">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N10">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O10">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P10">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q10">
-        <v>12.70283709862471</v>
+        <v>9.944355378239331</v>
       </c>
       <c r="R10">
-        <v>12.70283709862471</v>
+        <v>59.66613226943599</v>
       </c>
       <c r="S10">
-        <v>0.01176668186941016</v>
+        <v>0.008133233501750377</v>
       </c>
       <c r="T10">
-        <v>0.01176668186941016</v>
+        <v>0.006785629213286239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H11">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I11">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J11">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N11">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O11">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P11">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q11">
-        <v>16.73924031410817</v>
+        <v>14.26551108541067</v>
       </c>
       <c r="R11">
-        <v>16.73924031410817</v>
+        <v>128.389599768696</v>
       </c>
       <c r="S11">
-        <v>0.01550561610626661</v>
+        <v>0.01166739605196972</v>
       </c>
       <c r="T11">
-        <v>0.01550561610626661</v>
+        <v>0.01460131880073055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H12">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I12">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J12">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N12">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O12">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P12">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q12">
-        <v>7.307626725449254</v>
+        <v>6.192291341071111</v>
       </c>
       <c r="R12">
-        <v>7.307626725449254</v>
+        <v>55.73062206964</v>
       </c>
       <c r="S12">
-        <v>0.00676907987020241</v>
+        <v>0.005064516449000364</v>
       </c>
       <c r="T12">
-        <v>0.00676907987020241</v>
+        <v>0.006338056830676795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.71304441013081</v>
+        <v>0.5570086666666666</v>
       </c>
       <c r="H13">
-        <v>0.71304441013081</v>
+        <v>1.671026</v>
       </c>
       <c r="I13">
-        <v>0.04279671917571334</v>
+        <v>0.03090724684406269</v>
       </c>
       <c r="J13">
-        <v>0.04279671917571334</v>
+        <v>0.03276598343823939</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.2557168645223</v>
+        <v>13.262928</v>
       </c>
       <c r="N13">
-        <v>13.2557168645223</v>
+        <v>26.525856</v>
       </c>
       <c r="O13">
-        <v>0.2045797317753906</v>
+        <v>0.1954913963002474</v>
       </c>
       <c r="P13">
-        <v>0.2045797317753906</v>
+        <v>0.1538479259457462</v>
       </c>
       <c r="Q13">
-        <v>9.451914812524334</v>
+        <v>7.387565841375999</v>
       </c>
       <c r="R13">
-        <v>9.451914812524334</v>
+        <v>44.325395048256</v>
       </c>
       <c r="S13">
-        <v>0.008755341329834149</v>
+        <v>0.006042100841342229</v>
       </c>
       <c r="T13">
-        <v>0.008755341329834149</v>
+        <v>0.0050409785935458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H14">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I14">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J14">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.8149311854143</v>
+        <v>17.853143</v>
       </c>
       <c r="N14">
-        <v>17.8149311854143</v>
+        <v>35.706286</v>
       </c>
       <c r="O14">
-        <v>0.2749435493197251</v>
+        <v>0.263149724813253</v>
       </c>
       <c r="P14">
-        <v>0.2749435493197251</v>
+        <v>0.2070937143112604</v>
       </c>
       <c r="Q14">
-        <v>54.27774151652783</v>
+        <v>15.37381752111333</v>
       </c>
       <c r="R14">
-        <v>54.27774151652783</v>
+        <v>92.24290512668</v>
       </c>
       <c r="S14">
-        <v>0.05027765939659303</v>
+        <v>0.01257385149228791</v>
       </c>
       <c r="T14">
-        <v>0.05027765939659303</v>
+        <v>0.01049047638817074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H15">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I15">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J15">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4757331749327</v>
+        <v>25.610932</v>
       </c>
       <c r="N15">
-        <v>23.4757331749327</v>
+        <v>76.832796</v>
       </c>
       <c r="O15">
-        <v>0.3623085228240084</v>
+        <v>0.3774970999790309</v>
       </c>
       <c r="P15">
-        <v>0.3623085228240084</v>
+        <v>0.4456243112083781</v>
       </c>
       <c r="Q15">
-        <v>71.5248217306174</v>
+        <v>22.05425650338667</v>
       </c>
       <c r="R15">
-        <v>71.5248217306174</v>
+        <v>198.48830853048</v>
       </c>
       <c r="S15">
-        <v>0.06625368935586586</v>
+        <v>0.01803761139128747</v>
       </c>
       <c r="T15">
-        <v>0.06625368935586586</v>
+        <v>0.02257340996694923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.04675560919185</v>
+        <v>0.8611266666666667</v>
       </c>
       <c r="H16">
-        <v>3.04675560919185</v>
+        <v>2.58338</v>
       </c>
       <c r="I16">
-        <v>0.1828653900809522</v>
+        <v>0.04778211910048957</v>
       </c>
       <c r="J16">
-        <v>0.1828653900809522</v>
+        <v>0.05065569673642354</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2484875017934</v>
+        <v>11.11704666666667</v>
       </c>
       <c r="N16">
-        <v>10.2484875017934</v>
+        <v>33.35114</v>
       </c>
       <c r="O16">
-        <v>0.1581681960808759</v>
+        <v>0.1638617789074688</v>
       </c>
       <c r="P16">
-        <v>0.1581681960808759</v>
+        <v>0.1934340485346152</v>
       </c>
       <c r="Q16">
-        <v>31.22463678182161</v>
+        <v>9.573185339244445</v>
       </c>
       <c r="R16">
-        <v>31.22463678182161</v>
+        <v>86.1586680532</v>
       </c>
       <c r="S16">
-        <v>0.0289234888747299</v>
+        <v>0.007829663035774766</v>
       </c>
       <c r="T16">
-        <v>0.0289234888747299</v>
+        <v>0.0097985365010681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,309 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8611266666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.58338</v>
+      </c>
+      <c r="I17">
+        <v>0.04778211910048957</v>
+      </c>
+      <c r="J17">
+        <v>0.05065569673642354</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.262928</v>
+      </c>
+      <c r="N17">
+        <v>26.525856</v>
+      </c>
+      <c r="O17">
+        <v>0.1954913963002474</v>
+      </c>
+      <c r="P17">
+        <v>0.1538479259457462</v>
+      </c>
+      <c r="Q17">
+        <v>11.42106097888</v>
+      </c>
+      <c r="R17">
+        <v>68.52636587328</v>
+      </c>
+      <c r="S17">
+        <v>0.009340993181139427</v>
+      </c>
+      <c r="T17">
+        <v>0.007793273880235466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.0670265</v>
+      </c>
+      <c r="H18">
+        <v>6.134053</v>
+      </c>
+      <c r="I18">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J18">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.853143</v>
+      </c>
+      <c r="N18">
+        <v>35.706286</v>
+      </c>
+      <c r="O18">
+        <v>0.263149724813253</v>
+      </c>
+      <c r="P18">
+        <v>0.2070937143112604</v>
+      </c>
+      <c r="Q18">
+        <v>54.75606268928949</v>
+      </c>
+      <c r="R18">
+        <v>219.024250757158</v>
+      </c>
+      <c r="S18">
+        <v>0.04478358089082314</v>
+      </c>
+      <c r="T18">
+        <v>0.02490889383686795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.0670265</v>
+      </c>
+      <c r="H19">
+        <v>6.134053</v>
+      </c>
+      <c r="I19">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J19">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>25.610932</v>
+      </c>
+      <c r="N19">
+        <v>76.832796</v>
+      </c>
+      <c r="O19">
+        <v>0.3774970999790309</v>
+      </c>
+      <c r="P19">
+        <v>0.4456243112083781</v>
+      </c>
+      <c r="Q19">
+        <v>78.549407133698</v>
+      </c>
+      <c r="R19">
+        <v>471.296442802188</v>
+      </c>
+      <c r="S19">
+        <v>0.06424354775578568</v>
+      </c>
+      <c r="T19">
+        <v>0.05359896458437969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="H17">
-        <v>3.04675560919185</v>
-      </c>
-      <c r="I17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="J17">
-        <v>0.1828653900809522</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>13.2557168645223</v>
-      </c>
-      <c r="N17">
-        <v>13.2557168645223</v>
-      </c>
-      <c r="O17">
-        <v>0.2045797317753906</v>
-      </c>
-      <c r="P17">
-        <v>0.2045797317753906</v>
-      </c>
-      <c r="Q17">
-        <v>40.38692971084232</v>
-      </c>
-      <c r="R17">
-        <v>40.38692971084232</v>
-      </c>
-      <c r="S17">
-        <v>0.03741055245376337</v>
-      </c>
-      <c r="T17">
-        <v>0.03741055245376337</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.0670265</v>
+      </c>
+      <c r="H20">
+        <v>6.134053</v>
+      </c>
+      <c r="I20">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J20">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11.11704666666667</v>
+      </c>
+      <c r="N20">
+        <v>33.35114</v>
+      </c>
+      <c r="O20">
+        <v>0.1638617789074688</v>
+      </c>
+      <c r="P20">
+        <v>0.1934340485346152</v>
+      </c>
+      <c r="Q20">
+        <v>34.09627672840333</v>
+      </c>
+      <c r="R20">
+        <v>204.57766037042</v>
+      </c>
+      <c r="S20">
+        <v>0.02788647123163257</v>
+      </c>
+      <c r="T20">
+        <v>0.02326593153929591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.0670265</v>
+      </c>
+      <c r="H21">
+        <v>6.134053</v>
+      </c>
+      <c r="I21">
+        <v>0.1701828908337422</v>
+      </c>
+      <c r="J21">
+        <v>0.1202783673068418</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.262928</v>
+      </c>
+      <c r="N21">
+        <v>26.525856</v>
+      </c>
+      <c r="O21">
+        <v>0.1954913963002474</v>
+      </c>
+      <c r="P21">
+        <v>0.1538479259457462</v>
+      </c>
+      <c r="Q21">
+        <v>40.677751643592</v>
+      </c>
+      <c r="R21">
+        <v>162.711006574368</v>
+      </c>
+      <c r="S21">
+        <v>0.03326929095550084</v>
+      </c>
+      <c r="T21">
+        <v>0.01850457734629826</v>
       </c>
     </row>
   </sheetData>
